--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4888" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1140,10 +1152,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1187,28 +1199,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1233,28 +1245,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1313,10 +1325,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1360,28 +1372,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1406,28 +1418,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1486,10 +1498,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1533,28 +1545,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1579,28 +1591,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1659,10 +1671,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1706,28 +1718,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1752,28 +1764,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1832,10 +1844,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1879,28 +1891,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1925,28 +1937,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2005,10 +2017,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2052,28 +2064,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2098,28 +2110,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2178,10 +2190,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2225,28 +2237,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2271,28 +2283,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2612,10 +2624,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2659,28 +2671,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2705,28 +2717,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2797,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2844,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2890,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2958,10 +2970,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3005,28 +3017,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3051,28 +3063,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3131,10 +3143,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3178,28 +3190,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3224,28 +3236,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3304,10 +3316,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3351,28 +3363,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3397,28 +3409,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3477,10 +3489,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3524,28 +3536,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3570,28 +3582,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3650,10 +3662,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3697,28 +3709,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3743,28 +3755,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3823,10 +3835,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3870,28 +3882,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3916,28 +3928,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3996,10 +4008,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4043,28 +4055,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4089,28 +4101,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4169,10 +4181,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4216,28 +4228,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4262,28 +4274,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4342,10 +4354,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4389,28 +4401,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4435,28 +4447,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4515,10 +4527,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4562,28 +4574,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4608,28 +4620,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4688,10 +4700,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4735,28 +4747,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4781,28 +4793,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4861,10 +4873,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4908,28 +4920,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4954,28 +4966,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5034,10 +5046,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5127,28 +5139,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5207,10 +5219,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5254,28 +5266,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5300,28 +5312,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5380,10 +5392,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5427,28 +5439,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5473,28 +5485,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5553,10 +5565,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5600,28 +5612,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5646,28 +5658,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5726,10 +5738,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5773,28 +5785,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5819,28 +5831,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5899,10 +5911,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5946,28 +5958,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5992,28 +6004,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6072,10 +6084,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6119,28 +6131,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6165,28 +6177,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6245,10 +6257,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6292,28 +6304,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6338,28 +6350,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6418,10 +6430,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6465,28 +6477,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6511,28 +6523,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6591,10 +6603,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6638,28 +6650,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6684,28 +6696,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6764,10 +6776,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6811,28 +6823,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6857,28 +6869,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6937,10 +6949,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6984,28 +6996,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7030,28 +7042,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7313,10 +7325,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7360,28 +7372,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7406,28 +7418,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7486,10 +7498,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7533,28 +7545,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7579,28 +7591,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7659,10 +7671,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7706,28 +7718,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7752,28 +7764,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8064,10 +8076,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8111,28 +8123,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8157,28 +8169,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8237,10 +8249,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8284,28 +8296,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8330,28 +8342,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8410,10 +8422,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8457,28 +8469,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8503,28 +8515,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8583,10 +8595,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8630,28 +8642,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8676,28 +8688,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8756,10 +8768,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8803,28 +8815,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8849,28 +8861,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8929,10 +8941,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8976,28 +8988,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9022,28 +9034,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9102,10 +9114,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9149,28 +9161,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9195,28 +9207,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9275,10 +9287,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9322,28 +9334,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9368,28 +9380,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9448,10 +9460,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9495,28 +9507,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9541,28 +9553,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9621,10 +9633,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9668,28 +9680,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9714,28 +9726,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9794,10 +9806,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9841,28 +9853,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9887,28 +9899,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9967,10 +9979,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10014,28 +10026,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10060,28 +10072,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10140,10 +10152,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10187,28 +10199,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10233,28 +10245,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10313,10 +10325,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10360,28 +10372,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10406,28 +10418,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10486,10 +10498,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10533,28 +10545,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10579,28 +10591,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10659,10 +10671,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10706,28 +10718,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10752,28 +10764,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10832,10 +10844,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10879,28 +10891,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="2">
+      <c r="A373" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="2">
+      <c r="C373" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10925,28 +10937,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="2">
+      <c r="C375" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="2">
+      <c r="D375" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="2">
+      <c r="I375" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11005,10 +11017,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="2" t="s">
+      <c r="J377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11052,28 +11064,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="2">
+      <c r="A379" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="2">
+      <c r="C379" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11098,28 +11110,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="C381" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="2">
+      <c r="D381" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="2">
+      <c r="I381" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11178,10 +11190,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="2" t="s">
+      <c r="J383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11225,28 +11237,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="2">
+      <c r="A385" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="2">
+      <c r="C385" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11271,28 +11283,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="2">
+      <c r="C387" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="2">
+      <c r="D387" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="2">
+      <c r="I387" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11496,10 +11508,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11543,28 +11555,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11589,28 +11601,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11669,10 +11681,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11716,28 +11728,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11762,28 +11774,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11842,10 +11854,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11889,28 +11901,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11935,28 +11947,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12015,10 +12027,10 @@
       <c r="I412">
         <f>((C412-C411)^2+(D412- D411)^2)^.5</f>
       </c>
-      <c r="J412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K412" s="2" t="s">
+      <c r="J412" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K412" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L412" t="n">
@@ -12062,28 +12074,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="s" s="2">
+      <c r="A414" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C414" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D414" t="s" s="2">
+      <c r="C414" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D414" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12108,28 +12120,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="B416" t="s" s="2">
+      <c r="B416" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C416" t="s" s="2">
+      <c r="C416" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D416" t="s" s="2">
+      <c r="D416" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E416" t="s" s="2">
+      <c r="E416" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F416" t="s" s="2">
+      <c r="F416" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G416" t="s" s="2">
+      <c r="G416" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H416" t="s" s="2">
+      <c r="H416" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I416" t="s" s="2">
+      <c r="I416" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12188,10 +12200,10 @@
       <c r="I418">
         <f>((C418-C417)^2+(D418- D417)^2)^.5</f>
       </c>
-      <c r="J418" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K418" s="2" t="s">
+      <c r="J418" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K418" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L418" t="n">
@@ -12235,28 +12247,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="s" s="2">
+      <c r="A420" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C420" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D420" t="s" s="2">
+      <c r="C420" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12281,28 +12293,28 @@
       </c>
     </row>
     <row r="422">
-      <c r="B422" t="s" s="2">
+      <c r="B422" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C422" t="s" s="2">
+      <c r="C422" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D422" t="s" s="2">
+      <c r="D422" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E422" t="s" s="2">
+      <c r="E422" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F422" t="s" s="2">
+      <c r="F422" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G422" t="s" s="2">
+      <c r="G422" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H422" t="s" s="2">
+      <c r="H422" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I422" t="s" s="2">
+      <c r="I422" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12361,10 +12373,10 @@
       <c r="I424">
         <f>((C424-C423)^2+(D424- D423)^2)^.5</f>
       </c>
-      <c r="J424" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K424" s="2" t="s">
+      <c r="J424" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K424" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L424" t="n">
@@ -12408,28 +12420,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="s" s="2">
+      <c r="A426" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C426" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D426" t="s" s="2">
+      <c r="C426" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12454,28 +12466,28 @@
       </c>
     </row>
     <row r="428">
-      <c r="B428" t="s" s="2">
+      <c r="B428" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C428" t="s" s="2">
+      <c r="C428" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D428" t="s" s="2">
+      <c r="D428" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E428" t="s" s="2">
+      <c r="E428" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F428" t="s" s="2">
+      <c r="F428" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G428" t="s" s="2">
+      <c r="G428" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H428" t="s" s="2">
+      <c r="H428" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I428" t="s" s="2">
+      <c r="I428" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12534,10 +12546,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="2" t="s">
+      <c r="J430" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12581,28 +12593,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="2">
+      <c r="A432" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="2">
+      <c r="C432" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12627,28 +12639,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="2">
+      <c r="C434" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="2">
+      <c r="D434" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="2">
+      <c r="I434" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12707,10 +12719,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="2" t="s">
+      <c r="J436" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
